--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2847546.883495867</v>
+        <v>2845211.772293886</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -665,16 +665,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>75.51743042653267</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>120.2145230749714</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>39.15797524740199</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -829,7 +829,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>186.7900128022983</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>208.247486888631</v>
+        <v>115.653228379492</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269627</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705016</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,25 +1054,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>10.24924571897613</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>184.5760647928946</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>71.68269007697872</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>41.35684107511872</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1190,16 +1190,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,22 +1291,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347172</v>
+        <v>26.05155675490728</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701339</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.33703994142957</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>75.0888690599473</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576151</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>141.6930519056975</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>27.0291980517616</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>53.11937003877868</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,13 +2296,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>47.4973478028577</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,10 +2713,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>28.7518808581147</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701364</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>45.66054613217701</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>28.75188085812055</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>27.0291980517616</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>122.6028762599955</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1698.27162559239</v>
+        <v>1136.221880202098</v>
       </c>
       <c r="C2" t="n">
-        <v>1698.27162559239</v>
+        <v>1136.221880202098</v>
       </c>
       <c r="D2" t="n">
-        <v>1340.005926985639</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="E2" t="n">
-        <v>954.2176743873952</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F2" t="n">
-        <v>543.2317695977877</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G2" t="n">
-        <v>127.5270193220765</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
@@ -4349,31 +4349,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926626</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2437.640120926626</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2084.871465656512</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>2084.871465656512</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="Y2" t="n">
-        <v>2084.871465656512</v>
+        <v>1522.82172026622</v>
       </c>
     </row>
     <row r="3">
@@ -4383,55 +4383,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>1117.223096727985</v>
+        <v>662.3527266874019</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687206</v>
+        <v>1025.614745646622</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1659.793729425661</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4446,10 +4446,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>833.0891146802707</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="C4" t="n">
-        <v>664.1529317523638</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D4" t="n">
-        <v>514.036292340028</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>366.1231987576349</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J4" t="n">
         <v>76.71595955312199</v>
@@ -4513,25 +4513,25 @@
         <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1345.185932981698</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1122.207452176433</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>833.0891146802707</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>833.0891146802707</v>
+        <v>825.137147448514</v>
       </c>
       <c r="W4" t="n">
-        <v>833.0891146802707</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="X4" t="n">
-        <v>833.0891146802707</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="Y4" t="n">
-        <v>833.0891146802707</v>
+        <v>535.7199774115534</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1785.60015636022</v>
+        <v>864.8611267254482</v>
       </c>
       <c r="C5" t="n">
-        <v>1416.637639419808</v>
+        <v>864.8611267254482</v>
       </c>
       <c r="D5" t="n">
-        <v>1058.371940813058</v>
+        <v>864.8611267254482</v>
       </c>
       <c r="E5" t="n">
-        <v>672.5836882148137</v>
+        <v>479.072874127204</v>
       </c>
       <c r="F5" t="n">
-        <v>261.5977834252062</v>
+        <v>472.1273733780005</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800307</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800307</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800307</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
@@ -4571,46 +4571,46 @@
         <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723848</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400154</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400154</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400154</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X5" t="n">
-        <v>2562.339328400154</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="Y5" t="n">
-        <v>2172.199996424342</v>
+        <v>1251.46096678957</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
@@ -4641,28 +4641,28 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800307</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.427330237016</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380239</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694955</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828715</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601822</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>792.8801184070676</v>
+        <v>359.6292930162432</v>
       </c>
       <c r="C7" t="n">
-        <v>623.9439354791607</v>
+        <v>359.6292930162432</v>
       </c>
       <c r="D7" t="n">
-        <v>473.8272960668249</v>
+        <v>209.5126536039075</v>
       </c>
       <c r="E7" t="n">
-        <v>473.8272960668249</v>
+        <v>61.59956002151435</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>61.59956002151435</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>61.59956002151435</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>61.59956002151435</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800307</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312189</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020474</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693231</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096583</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1450.005650586724</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U7" t="n">
-        <v>1450.005650586724</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V7" t="n">
-        <v>1195.321162380837</v>
+        <v>990.0598878880304</v>
       </c>
       <c r="W7" t="n">
-        <v>1195.321162380837</v>
+        <v>990.0598878880304</v>
       </c>
       <c r="X7" t="n">
-        <v>1195.321162380837</v>
+        <v>762.0703369900131</v>
       </c>
       <c r="Y7" t="n">
-        <v>974.5285832373073</v>
+        <v>541.2777578464829</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>942.9472709150261</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>584.6815723082757</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>198.8933197100314</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>191.947818960828</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>180.9157728462285</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3283.831234664607</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3077.853487048829</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2824.323010322666</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2824.323010322666</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2824.323010322666</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2824.323010322666</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2434.183678346854</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>1300.279904748355</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>1010.862734711394</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>782.8731838133765</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>562.0806046698464</v>
       </c>
     </row>
     <row r="11">
@@ -5033,55 +5033,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2222.001901828445</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.7474797708871</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429803</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5239,10 +5239,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5267,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,7 +5294,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5306,19 +5306,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,22 +5355,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1520.445529061503</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
         <v>2283.159972732779</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5501,40 +5501,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5555,7 +5555,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.793114229131</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468418</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963486</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703137</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424068</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853364</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.06254548757</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854709</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138438</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703137</v>
       </c>
     </row>
     <row r="20">
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>948.5505208511905</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232836</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>229.5592957321579</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1640.408734861921</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1350.99156482496</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,31 +5975,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,19 +6215,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6306,25 +6306,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400658</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797686</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910803</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570812</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279797</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853355</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832657</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487562</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510503</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854701</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648814</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611853</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138356</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703055</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,61 +6449,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797191</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.793114229131</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6689,58 +6689,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6835,25 +6835,25 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349513</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,40 +7154,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,13 +7421,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,16 +7658,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349513</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8058,16 +8058,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>265.0304328515148</v>
+        <v>70.0306496210797</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071651</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>20.9377812015499</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878365</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,19 +8304,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>224.3355197601772</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>305.1601501039157</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154995</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>138.4949402405077</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>92.15795203868053</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>6.922421112514854</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405072</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>112.4047682534902</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24184,13 +24184,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>204.6402955209703</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>138.4949402405131</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>122.8084169651565</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>119.8635921600918</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.4949402405073</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>138.4949402405072</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>755149.8202234281</v>
+        <v>755149.820223428</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>755149.8202234282</v>
+        <v>755149.8202234283</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>755149.8202234281</v>
+        <v>755149.8202234282</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>755149.8202234282</v>
+        <v>755149.820223428</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>755149.820223428</v>
+        <v>755149.8202234281</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>755149.8202234281</v>
+        <v>755149.8202234282</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>755149.8202234282</v>
+        <v>755149.8202234281</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>755149.8202234282</v>
+        <v>755149.8202234281</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380341</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="C2" t="n">
+        <v>677359.4601380338</v>
+      </c>
+      <c r="D2" t="n">
         <v>677359.4601380336</v>
       </c>
-      <c r="D2" t="n">
-        <v>677359.4601380335</v>
-      </c>
       <c r="E2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="F2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="G2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="H2" t="n">
         <v>665895.9447442547</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="J2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="K2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="G2" t="n">
-        <v>665895.9447442554</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="M2" t="n">
         <v>665895.9447442549</v>
-      </c>
-      <c r="I2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="J2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665895.9447442552</v>
-      </c>
-      <c r="M2" t="n">
-        <v>665895.944744255</v>
       </c>
       <c r="N2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442548</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403384</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819083</v>
+        <v>48293.97000819093</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551159</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
-        <v>136726.2736921026</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810782</v>
+        <v>88524.23512810787</v>
       </c>
       <c r="E4" t="n">
+        <v>9337.200356756637</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9337.200356756635</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9337.200356756648</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9337.200356756603</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9337.200356756603</v>
+      </c>
+      <c r="J4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="F4" t="n">
+      <c r="K4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="L4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="G4" t="n">
-        <v>9337.200356756575</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9337.200356756561</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9337.200356756508</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9337.200356756524</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9337.20035675657</v>
-      </c>
       <c r="M4" t="n">
-        <v>9337.200356756603</v>
+        <v>9337.200356756599</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756613</v>
       </c>
       <c r="O4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>92937.77243984472</v>
+      </c>
+      <c r="C5" t="n">
         <v>92937.7724398447</v>
-      </c>
-      <c r="C5" t="n">
-        <v>92937.77243984467</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-667056.3695698328</v>
+        <v>-667056.369569833</v>
       </c>
       <c r="C6" t="n">
-        <v>447695.4140060869</v>
+        <v>447695.4140060866</v>
       </c>
       <c r="D6" t="n">
-        <v>288274.144008194</v>
+        <v>288274.1440081944</v>
       </c>
       <c r="E6" t="n">
-        <v>230023.7527562359</v>
+        <v>229989.0148308008</v>
       </c>
       <c r="F6" t="n">
-        <v>555436.2145635913</v>
+        <v>555401.4766381554</v>
       </c>
       <c r="G6" t="n">
-        <v>555436.2145635915</v>
+        <v>555401.4766381556</v>
       </c>
       <c r="H6" t="n">
-        <v>555436.2145635913</v>
+        <v>555401.4766381554</v>
       </c>
       <c r="I6" t="n">
-        <v>555436.2145635914</v>
+        <v>555401.476638156</v>
       </c>
       <c r="J6" t="n">
-        <v>387831.0367536088</v>
+        <v>387796.2988281728</v>
       </c>
       <c r="K6" t="n">
-        <v>555436.2145635911</v>
+        <v>555401.4766381556</v>
       </c>
       <c r="L6" t="n">
-        <v>507142.2445554006</v>
+        <v>507107.5066299649</v>
       </c>
       <c r="M6" t="n">
-        <v>470381.1866280796</v>
+        <v>470346.448702644</v>
       </c>
       <c r="N6" t="n">
-        <v>555436.2145635914</v>
+        <v>555401.4766381558</v>
       </c>
       <c r="O6" t="n">
-        <v>555436.2145635914</v>
+        <v>555401.4766381556</v>
       </c>
       <c r="P6" t="n">
-        <v>555436.2145635915</v>
+        <v>555401.4766381555</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.604497107147145e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.604497107147145e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.604497107147145e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.604497107147145e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.604497107147145e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26738,7 +26738,7 @@
         <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175388</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000384</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,10 +26814,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.604497107147145e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26963,31 +26963,31 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757595</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022545</v>
+        <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.604497107147145e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022545</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,16 +27385,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>225.5011221358727</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>266.0234155810822</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>128.0888458512258</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27549,7 +27549,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>7.872447559439138</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>203.3002158843229</v>
+        <v>295.8944743934619</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247055</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>94.54734948492444</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195737</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>36.17263120431733</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>222.9250743103418</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>67.83092071305711</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28011,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>94.3554362891108</v>
+        <v>226.0860865689207</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.008534667969613e-12</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>9.698908343125368e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28761,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.701807240707759e-12</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -29460,7 +29460,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-4.941410300555933e-12</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>-1.463149601477198e-12</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181058</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336176</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491898</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857141</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767378</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730001</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342221</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166591</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190642</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147049</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745093</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436492</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
-        <v>189.817847557584</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177241</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040585</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762069</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405672</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378623</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.318536019979</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000169</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231071</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335768</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682318</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227906</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154671</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169136</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759582</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523477</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069558</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024981</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,37 +31838,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>344.2757660550401</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32075,7 +32075,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32087,13 +32087,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O15" t="n">
-        <v>485.1127032082914</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33497,7 +33497,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422586</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>616.9033572954392</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>165.2255134509763</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>251.886104915025</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>602.4605829984181</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34366,34 +34366,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>616.9033572954392</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,16 +34778,16 @@
         <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>562.710793489365</v>
+        <v>367.7110102589299</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>640.584832100039</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
@@ -34796,7 +34796,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225035</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407335</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067505</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457273</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376312</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949724</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637946</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402555</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939893</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313211</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.68036063785</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820402</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928737</v>
+        <v>615.5326193530511</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961228</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235321</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870588</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831068</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295068</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805397</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>212.9340539717068</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35735,13 +35735,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O15" t="n">
-        <v>342.516458763847</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,25 +36039,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066277</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191254</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37154,22 +37154,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>485.5616452121058</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>31.25110603664601</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>285.360777932</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>485.5616452121058</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
